--- a/uploads/closing checklist2.xlsx
+++ b/uploads/closing checklist2.xlsx
@@ -381,13 +381,13 @@
     <t>Andy Category 3</t>
   </si>
   <si>
-    <t>Category 4</t>
-  </si>
-  <si>
     <t>Title 4</t>
   </si>
   <si>
     <t>Value 4</t>
+  </si>
+  <si>
+    <t>Category 5</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,13 +2012,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>

--- a/uploads/closing checklist2.xlsx
+++ b/uploads/closing checklist2.xlsx
@@ -387,7 +387,7 @@
     <t>Value 4</t>
   </si>
   <si>
-    <t>Category 5</t>
+    <t>Category 6</t>
   </si>
 </sst>
 </file>
